--- a/documents/project management/Test/Abnahmetest_Go Happy_Design.xlsx
+++ b/documents/project management/Test/Abnahmetest_Go Happy_Design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -258,31 +258,29 @@
     <t>Orts-Angabe. Bopser, Stuttgart und nicht der aktuelle Standort</t>
   </si>
   <si>
-    <t>Durch fehlerhafte Ortsangaben tritt dieser Fall nicht ein</t>
-  </si>
-  <si>
     <t>Gibt man Paulinenstrasße als Ort ein, so wird die Eingabe automatisch in Marienstraße geändert. Die gleiche Eingabe kommt bei der Verwendung des aktuellen Standorts (Standort DHBW).</t>
   </si>
   <si>
     <t>Es wird jeden Tag die gleiche Route angezeigt. Allerdings auch ohne Angaben von Happy Hours.</t>
   </si>
   <si>
-    <t>Bei verschiedenen Zeiträumen werden keine Bars mehr angezeigt. Bsp. 18-4 Uhr werden nur 2 Bars angezeigt mit je 1h Verweilzeit und max. Radius. Es werden unterscheidlihce Ergebisse angezeigt. Variiert man den Zeitraum nur minimal werden manachmal Bars angezeigt und manchmal nicht. Auch wenn es sich um dieselben Zeiträume handelt.</t>
-  </si>
-  <si>
-    <t>Gibt man beispielsweise als neuen Ort Vaihingen ein, so wird eine Route generiert die nicht dem angegebenen Radius entspricht</t>
-  </si>
-  <si>
-    <t>Radiusangaben werden teilweise nicht eingehalten, bsp wenn man eine Route in Vahingen generiert werden auch bars in Stuttgart die viel weiter weg sind mit eingeplant.</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Funktionalität gegeben. Text zum Auswählen einer neuen Bar fehlt</t>
-  </si>
-  <si>
-    <t>ToDo Design</t>
+    <t>Es wird eine leere "Kachel" erstellt. Sprich eine bar ohne Angaben angezeigt wenn keine weitere Bar vorhanden ist.</t>
+  </si>
+  <si>
+    <t>Duplikat zu 37</t>
+  </si>
+  <si>
+    <t>Es erscheint ein Pop Up fenster in welches man einen Text zur Fehlermeldung ientragen kann. Dieser kann anschließend abgeschickt oder aber auch verworfen werden</t>
+  </si>
+  <si>
+    <t>nicht testbar</t>
+  </si>
+  <si>
+    <t>Android: Test erfolgreich
+ios: Standort kann nicht ermittelt werden und wird nicht eingetragen und verwendet</t>
+  </si>
+  <si>
+    <t>Durch fehlerhafte Ortsangaben (bei Start der Anwendung) tritt dieser Fall nicht auf</t>
   </si>
 </sst>
 </file>
@@ -335,9 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -582,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -659,7 +656,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1404,17 +1406,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:F38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A2:F38">
-    <filterColumn colId="5"/>
-  </autoFilter>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle146" displayName="Tabelle146" ref="A2:E38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A2:E38"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Testszenario" dataDxfId="2"/>
     <tableColumn id="3" name="Erwartungen"/>
     <tableColumn id="4" name="Ergebnis Design" dataDxfId="1"/>
     <tableColumn id="5" name="Kommentar Design" dataDxfId="0"/>
-    <tableColumn id="6" name="ToDo Design"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1872,7 +1871,7 @@
       </c>
       <c r="I4" s="10" t="str">
         <f>Design!E4</f>
-        <v>Durch fehlerhafte Ortsangaben tritt dieser Fall nicht ein</v>
+        <v>Durch fehlerhafte Ortsangaben (bei Start der Anwendung) tritt dieser Fall nicht auf</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1909,7 +1908,7 @@
       </c>
       <c r="I5" s="1" t="str">
         <f>Design!E4</f>
-        <v>Durch fehlerhafte Ortsangaben tritt dieser Fall nicht ein</v>
+        <v>Durch fehlerhafte Ortsangaben (bei Start der Anwendung) tritt dieser Fall nicht auf</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2053,11 +2052,11 @@
       </c>
       <c r="H9" s="10">
         <f>Design!D8</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <f>Design!E8</f>
-        <v>Bei verschiedenen Zeiträumen werden keine Bars mehr angezeigt. Bsp. 18-4 Uhr werden nur 2 Bars angezeigt mit je 1h Verweilzeit und max. Radius. Es werden unterscheidlihce Ergebisse angezeigt. Variiert man den Zeitraum nur minimal werden manachmal Bars angezeigt und manchmal nicht. Auch wenn es sich um dieselben Zeiträume handelt.</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2090,11 +2089,11 @@
       </c>
       <c r="H10" s="1">
         <f>Design!D8</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <f>Design!E8</f>
-        <v>Bei verschiedenen Zeiträumen werden keine Bars mehr angezeigt. Bsp. 18-4 Uhr werden nur 2 Bars angezeigt mit je 1h Verweilzeit und max. Radius. Es werden unterscheidlihce Ergebisse angezeigt. Variiert man den Zeitraum nur minimal werden manachmal Bars angezeigt und manchmal nicht. Auch wenn es sich um dieselben Zeiträume handelt.</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2168,7 +2167,7 @@
       </c>
       <c r="I12" s="1" t="str">
         <f>Design!E10</f>
-        <v>Gibt man beispielsweise als neuen Ort Vaihingen ein, so wird eine Route generiert die nicht dem angegebenen Radius entspricht</v>
+        <v>Es wird eine leere "Kachel" erstellt. Sprich eine bar ohne Angaben angezeigt wenn keine weitere Bar vorhanden ist.</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2201,11 +2200,11 @@
       </c>
       <c r="H13" s="1">
         <f>Design!D11</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <f>Design!E11</f>
-        <v>Radiusangaben werden teilweise nicht eingehalten, bsp wenn man eine Route in Vahingen generiert werden auch bars in Stuttgart die viel weiter weg sind mit eingeplant.</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2717,11 +2716,11 @@
       </c>
       <c r="H27" s="10">
         <f>Design!D29</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
         <f>Design!E29</f>
-        <v>Funktionalität gegeben. Text zum Auswählen einer neuen Bar fehlt</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2976,7 +2975,7 @@
       </c>
       <c r="H34" s="10">
         <f>Design!D28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10">
         <f>Design!E28</f>
@@ -3013,11 +3012,11 @@
       </c>
       <c r="H35" s="10">
         <f>Design!D29</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
         <f>Design!E29</f>
-        <v>Funktionalität gegeben. Text zum Auswählen einer neuen Bar fehlt</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3050,7 +3049,7 @@
       </c>
       <c r="H36" s="10">
         <f>Design!D30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="10">
         <f>Design!E30</f>
@@ -3087,11 +3086,11 @@
       </c>
       <c r="H37" s="10">
         <f>Design!D31</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="str">
         <f>Design!E31</f>
-        <v>0</v>
+        <v>Es erscheint ein Pop Up fenster in welches man einen Text zur Fehlermeldung ientragen kann. Dieser kann anschließend abgeschickt oder aber auch verworfen werden</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -4173,10 +4172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4188,12 +4187,12 @@
     <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4209,11 +4208,8 @@
       <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25">
+    </row>
+    <row r="3" spans="1:5" ht="47.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -4230,7 +4226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25">
+    <row r="4" spans="1:5" ht="63">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -4244,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="157.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="157.5">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -4261,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="78.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -4278,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="63">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -4296,7 +4292,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="283.5">
+    <row r="8" spans="1:5" ht="63">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -4307,13 +4303,11 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="63">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="63">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -4328,7 +4322,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="94.5">
+    <row r="10" spans="1:5" ht="94.5">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -4342,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="126">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="78.75">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -4356,13 +4350,11 @@
         <v>48</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="78.75">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="78.75">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -4377,7 +4369,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="78.75">
+    <row r="13" spans="1:5" ht="78.75">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -4392,7 +4384,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="31.5">
+    <row r="14" spans="1:5" ht="31.5">
       <c r="A14" s="22">
         <v>12</v>
       </c>
@@ -4407,7 +4399,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="31.5">
+    <row r="15" spans="1:5" ht="31.5">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -4422,7 +4414,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:6" ht="31.5">
+    <row r="16" spans="1:5" ht="31.5">
       <c r="A16" s="22">
         <v>14</v>
       </c>
@@ -4437,7 +4429,7 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -4452,7 +4444,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="31.5">
+    <row r="18" spans="1:5" ht="31.5">
       <c r="A18" s="22">
         <v>16</v>
       </c>
@@ -4467,7 +4459,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="31.5">
+    <row r="19" spans="1:5" ht="31.5">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -4482,7 +4474,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="31.5">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4497,7 +4489,7 @@
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="31.5">
+    <row r="21" spans="1:5" ht="31.5">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -4512,7 +4504,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:5" ht="31.5">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -4527,7 +4519,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="47.25">
+    <row r="23" spans="1:5" ht="47.25">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -4542,7 +4534,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="47.25">
+    <row r="24" spans="1:5" ht="47.25">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -4557,7 +4549,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="31.5">
+    <row r="25" spans="1:5" ht="31.5">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -4572,7 +4564,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="47.25">
+    <row r="26" spans="1:5" ht="47.25">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -4587,7 +4579,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="47.25">
+    <row r="27" spans="1:5" ht="47.25">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -4602,7 +4594,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="47.25">
+    <row r="28" spans="1:5" ht="47.25">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -4612,10 +4604,12 @@
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="47.25">
+    <row r="29" spans="1:5" ht="31.5">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -4626,16 +4620,11 @@
         <v>58</v>
       </c>
       <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="31.5">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -4645,10 +4634,12 @@
       <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="31.5">
+    <row r="31" spans="1:5" ht="126">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -4658,10 +4649,14 @@
       <c r="C31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="78.75">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -4671,8 +4666,12 @@
       <c r="C32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="47.25">
       <c r="A33" s="20">
@@ -4685,7 +4684,9 @@
         <v>61</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="31.5">
       <c r="A34" s="22">
@@ -4697,7 +4698,9 @@
       <c r="C34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="31.5">
@@ -4710,7 +4713,9 @@
       <c r="C35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="31.5">
@@ -4723,7 +4728,9 @@
       <c r="C36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5">
@@ -4736,7 +4743,9 @@
       <c r="C37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
@@ -4749,8 +4758,12 @@
       <c r="C38" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D38">
